--- a/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="7">
         <f>E2 + E3 + E4 + E5</f>
-        <v>2.4434</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.53839999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>

--- a/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
@@ -509,20 +509,21 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -579,7 +580,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="7">
         <f>E2 + E3 + E4 + E5</f>
-        <v>3.74</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -614,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.53800000000000003</v>
+        <v>1.208</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>

--- a/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Esitmated Hours</t>
-  </si>
-  <si>
     <t>Hours Used</t>
   </si>
   <si>
@@ -78,6 +75,36 @@
   </si>
   <si>
     <t>To describe the robustness of this system.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Task Time Overestimation</t>
+  </si>
+  <si>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Decide on a Database Solution</t>
+  </si>
+  <si>
+    <t>Conduct Research Into How to Link the Database with our C# Application</t>
+  </si>
+  <si>
+    <t>MVVM and/or MVC Research</t>
+  </si>
+  <si>
+    <t>To use with our C# Implementation</t>
+  </si>
+  <si>
+    <t>To be able to link the database with our C# Implementation</t>
+  </si>
+  <si>
+    <t>For looking into the minimum requirement for the software pattern, we are to use in development</t>
+  </si>
+  <si>
+    <t>Task Took Between 1 and 2 hours (suggested estimation values for the hours a task will take, are that of 1, 2, 4 and 8 (for hours))</t>
   </si>
 </sst>
 </file>
@@ -181,16 +208,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDD2D93-A8E1-4767-A1F6-F16CC3E49AD1}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,236 +547,294 @@
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="5">
+        <f>D2 - E2</f>
+        <v>1.095</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="7">
         <f>E2 + E3 + E4 + E5</f>
         <v>4.41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f xml:space="preserve"> D3 - E3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="5">
+        <v>1.208</v>
+      </c>
+      <c r="F4" s="5">
+        <f xml:space="preserve"> D4 - E4</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <f xml:space="preserve"> D5 - E5</f>
+        <v>0.70300000000000007</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2240,9 +2325,10 @@
       <c r="J138" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDD2D93-A8E1-4767-A1F6-F16CC3E49AD1}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,8 +739,13 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7 - E7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>

--- a/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/James Moran's SSD Timelog.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDD2D93-A8E1-4767-A1F6-F16CC3E49AD1}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,13 +720,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6 - E6</f>
+        <v>0</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="7">
+        <f xml:space="preserve"> E6 + E7 + E8 + E9 + E10 + E11 + E12 + E13 + E14</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -749,7 +755,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -767,7 +773,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -779,7 +785,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -791,7 +797,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -803,7 +809,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -815,7 +821,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -827,7 +833,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -839,7 +845,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2330,10 +2336,11 @@
       <c r="J138" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="A6:A14"/>
+    <mergeCell ref="J6:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
